--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-160829.5408588191</v>
+        <v>-163437.1805964984</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>27.49024795921991</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>172.3388308107216</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885173</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>146.7478052391479</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>77.68225207643854</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833737</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>62.02750230200299</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>113.9506181031017</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>164.4379406857877</v>
       </c>
       <c r="G5" t="n">
-        <v>84.75998775070713</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>96.76040979744283</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.02258336868143</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>364.7916354744459</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>115.6025156919511</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>160.7354334323658</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>118.7921302987978</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,16 +1585,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>14.53306611597334</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>183.8417748468611</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>239.9492756896747</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1895,7 +1895,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>90.69284018413052</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>119.6255281319623</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>162.4016674345617</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8253826161918028</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>34.00490843294713</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>208.2736826641301</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>82.47290449300864</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>1.839588425940167</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3001,10 +3001,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>216.4795114578129</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>27.77749086859501</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901.7426931027401</v>
+        <v>1412.734563738783</v>
       </c>
       <c r="C2" t="n">
-        <v>532.7801761623283</v>
+        <v>1043.772046798372</v>
       </c>
       <c r="D2" t="n">
-        <v>532.7801761623283</v>
+        <v>1043.772046798372</v>
       </c>
       <c r="E2" t="n">
-        <v>146.9919235640841</v>
+        <v>1043.772046798372</v>
       </c>
       <c r="F2" t="n">
-        <v>146.9919235640841</v>
+        <v>632.7861420087643</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640841</v>
+        <v>458.7065149272273</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640841</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073759</v>
+        <v>125.8997233870222</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872722</v>
+        <v>605.2571586872803</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054635</v>
+        <v>842.8799399054703</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463066</v>
+        <v>1138.950506463071</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.42561269865</v>
+        <v>1444.425612698655</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015284</v>
+        <v>1719.541832015287</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394155</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466515</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>2236.241780077746</v>
+        <v>2124.334033584003</v>
       </c>
       <c r="V2" t="n">
-        <v>1905.178892734175</v>
+        <v>1793.271146240433</v>
       </c>
       <c r="W2" t="n">
-        <v>1756.948786432005</v>
+        <v>1440.502490970319</v>
       </c>
       <c r="X2" t="n">
-        <v>1678.481865142674</v>
+        <v>1440.502490970319</v>
       </c>
       <c r="Y2" t="n">
-        <v>1288.342533166862</v>
+        <v>1440.502490970319</v>
       </c>
     </row>
     <row r="3">
@@ -4395,49 +4395,49 @@
         <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093829</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369552</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496867</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>1041.052645433269</v>
+        <v>1041.052645433275</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928757</v>
+        <v>1304.992176928761</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362089</v>
+        <v>1590.326047362092</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>1829.130999113549</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
         <v>2023.106809259863</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>429.6656179569021</v>
+        <v>1796.941817504293</v>
       </c>
       <c r="C4" t="n">
-        <v>429.6656179569021</v>
+        <v>1796.941817504293</v>
       </c>
       <c r="D4" t="n">
-        <v>429.6656179569021</v>
+        <v>1646.825178091958</v>
       </c>
       <c r="E4" t="n">
-        <v>367.0115752276062</v>
+        <v>1498.912084509565</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>1498.912084509565</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="J4" t="n">
-        <v>54.034527330184</v>
+        <v>1332.824984110053</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159871</v>
+        <v>1466.334073395855</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341311</v>
+        <v>1692.706176713999</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666712</v>
+        <v>1941.772943046538</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092719</v>
+        <v>2190.352074789138</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357427</v>
+        <v>2403.938841137293</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993471</v>
+        <v>2563.178535773336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361121</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361121</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361121</v>
+        <v>2387.520519301288</v>
       </c>
       <c r="T4" t="n">
-        <v>1086.791150136559</v>
+        <v>2387.520519301288</v>
       </c>
       <c r="U4" t="n">
-        <v>1086.791150136559</v>
+        <v>2387.520519301288</v>
       </c>
       <c r="V4" t="n">
-        <v>832.106661930672</v>
+        <v>2132.836031095401</v>
       </c>
       <c r="W4" t="n">
-        <v>832.106661930672</v>
+        <v>2132.836031095401</v>
       </c>
       <c r="X4" t="n">
-        <v>832.106661930672</v>
+        <v>2017.734396647823</v>
       </c>
       <c r="Y4" t="n">
-        <v>611.3140827871418</v>
+        <v>1796.941817504293</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1286.679429019351</v>
+        <v>1057.336795864254</v>
       </c>
       <c r="C5" t="n">
-        <v>917.716912078939</v>
+        <v>1057.336795864254</v>
       </c>
       <c r="D5" t="n">
-        <v>917.716912078939</v>
+        <v>699.0710972575034</v>
       </c>
       <c r="E5" t="n">
-        <v>917.716912078939</v>
+        <v>699.0710972575034</v>
       </c>
       <c r="F5" t="n">
-        <v>506.7310072893314</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4568,22 +4568,22 @@
         <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477384</v>
+        <v>804.6133007477387</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4598,19 +4598,19 @@
         <v>2381.347406599813</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.347406599813</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="V5" t="n">
-        <v>2050.284519256242</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="W5" t="n">
-        <v>2050.284519256242</v>
+        <v>1443.936635928376</v>
       </c>
       <c r="X5" t="n">
-        <v>1676.818760995162</v>
+        <v>1443.936635928376</v>
       </c>
       <c r="Y5" t="n">
-        <v>1286.679429019351</v>
+        <v>1443.936635928376</v>
       </c>
     </row>
     <row r="6">
@@ -4629,40 +4629,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>788.8134803644004</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1155.119369856726</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538.8288664011729</v>
+        <v>933.127283224869</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8926834732661</v>
+        <v>764.1911002969621</v>
       </c>
       <c r="D7" t="n">
-        <v>219.7760440609304</v>
+        <v>614.0744608846263</v>
       </c>
       <c r="E7" t="n">
-        <v>219.7760440609304</v>
+        <v>466.1613673022332</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4723,52 +4723,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1526.657678245569</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1303.723103787551</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U7" t="n">
-        <v>1303.723103787551</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="V7" t="n">
-        <v>1049.038615581664</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="W7" t="n">
-        <v>759.6214455447031</v>
+        <v>1161.116834122886</v>
       </c>
       <c r="X7" t="n">
-        <v>759.6214455447031</v>
+        <v>933.127283224869</v>
       </c>
       <c r="Y7" t="n">
-        <v>538.8288664011729</v>
+        <v>933.127283224869</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>908.8801849614745</v>
+        <v>1299.062352357155</v>
       </c>
       <c r="C8" t="n">
-        <v>539.9176680210627</v>
+        <v>1299.062352357155</v>
       </c>
       <c r="D8" t="n">
-        <v>539.9176680210627</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="E8" t="n">
-        <v>539.9176680210627</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314552</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L8" t="n">
         <v>804.6133007477392</v>
@@ -4823,10 +4823,10 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
         <v>2465.815585560731</v>
@@ -4835,19 +4835,19 @@
         <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961806</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.590997961806</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="W8" t="n">
-        <v>1650.822342691692</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.356584430612</v>
+        <v>1299.062352357155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1277.356584430612</v>
+        <v>1299.062352357155</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128336</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>724.0888213291483</v>
+        <v>599.2586963421437</v>
       </c>
       <c r="M9" t="n">
-        <v>1090.394710821474</v>
+        <v>965.5645858344692</v>
       </c>
       <c r="N9" t="n">
-        <v>1480.804272147216</v>
+        <v>1606.587795454363</v>
       </c>
       <c r="O9" t="n">
-        <v>1815.732952862747</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.487821681304</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4939,37 +4939,37 @@
         <v>468.3525352791975</v>
       </c>
       <c r="C10" t="n">
-        <v>305.9935116101411</v>
+        <v>468.3525352791975</v>
       </c>
       <c r="D10" t="n">
-        <v>305.9935116101411</v>
+        <v>348.360484472331</v>
       </c>
       <c r="E10" t="n">
-        <v>305.9935116101411</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="F10" t="n">
-        <v>305.9935116101411</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G10" t="n">
-        <v>305.9935116101411</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
         <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
         <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750634</v>
@@ -5021,31 +5021,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,10 +5054,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565343</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X13" t="n">
-        <v>1466.014387565343</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061504</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616111</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258107</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.82229605222</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044489</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.455065717131</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892241</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768884</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>414.4022433768884</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>267.512295878978</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>267.512295878978</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2259.083513032701</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>2039.482048055643</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831766</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625879</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.896109690901</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473707</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5738,25 +5738,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654462</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891998</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446605</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876697</v>
+        <v>869.9745311434702</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597628</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474271</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5917,43 +5917,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396418</v>
+        <v>1789.822296052218</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1500.405126015257</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614396</v>
+        <v>1272.41557511724</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179095</v>
+        <v>1051.62299597371</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2345.568987476151</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2125.967522499092</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U25" t="n">
-        <v>1836.89229584329</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.207807637403</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1018.438627038652</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
-        <v>849.5024441107454</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>699.3858046984096</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>551.4727111160165</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>404.5827636181061</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>237.3866643329861</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>95.67483317518418</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797747</v>
@@ -6418,16 +6418,16 @@
         <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1938.2863919474</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1648.869221910439</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>1420.879671012422</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>1200.087091868892</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6452,40 +6452,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2418.905011995821</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2236.050177650725</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
         <v>402.7245934908939</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7163,61 +7163,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,13 +7400,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
         <v>402.7245934908939</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380729</v>
@@ -7816,25 +7816,25 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079812</v>
+        <v>320.7701244800648</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>248.7601900310628</v>
+        <v>248.7601900310701</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>191.4694788103603</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>253.1450992870218</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>231.4498533910211</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>65.3784434699518</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-8.286311362645433e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-8.179243303904299e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-8.286311362645433e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-2.172521753390836e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-8.915365836024113e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>355.2435937042607</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>292.0488486020305</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-2.945315721635453e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>271.9899322206194</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.7428785052337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>46.57372264691631</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>49.60187266209334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>61.40075786968229</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>4.845153664066174</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>145.6085800303774</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>147.0213775686975</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>9.131767663158172</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>84.77391660561919</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>79.42624789262536</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9259388694754023</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>38.59775584152668</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1040959.884464605</v>
+        <v>1040959.884464606</v>
       </c>
     </row>
     <row r="3">
@@ -26314,46 +26314,46 @@
         <v>274720.9666028986</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.663699106</v>
       </c>
       <c r="E2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="I2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="K2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753976</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898934</v>
+        <v>172764.3597898953</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,10 +26375,10 @@
         <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.456904235</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109300.0494576003</v>
+        <v>109300.0494576007</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695011</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695023</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695024</v>
       </c>
-      <c r="H4" t="n">
-        <v>6287.480531695011</v>
-      </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695035</v>
+        <v>6287.48053169501</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695011</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695106</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695065</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699087</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-863607.0936270902</v>
+        <v>-863828.2249410634</v>
       </c>
       <c r="C6" t="n">
-        <v>-87421.54017754465</v>
+        <v>-87421.54017754646</v>
       </c>
       <c r="D6" t="n">
-        <v>85342.81961234869</v>
+        <v>85342.81961234845</v>
       </c>
       <c r="E6" t="n">
-        <v>-305618.9032176005</v>
+        <v>-305653.6411430363</v>
       </c>
       <c r="F6" t="n">
-        <v>195269.9645281499</v>
+        <v>195235.2266027142</v>
       </c>
       <c r="G6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027143</v>
       </c>
       <c r="H6" t="n">
-        <v>195269.9645281502</v>
+        <v>195235.2266027145</v>
       </c>
       <c r="I6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027143</v>
       </c>
       <c r="J6" t="n">
-        <v>25855.94770210204</v>
+        <v>25821.20977666661</v>
       </c>
       <c r="K6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027143</v>
       </c>
       <c r="L6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027146</v>
       </c>
       <c r="M6" t="n">
-        <v>64385.50762391493</v>
+        <v>64350.76969847927</v>
       </c>
       <c r="N6" t="n">
-        <v>195269.9645281499</v>
+        <v>195235.2266027144</v>
       </c>
       <c r="O6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027143</v>
       </c>
       <c r="P6" t="n">
-        <v>171020.4900567702</v>
+        <v>171020.4900567704</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522349</v>
+        <v>189.725434152237</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>239.9489078843225</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>202.4931634782651</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.40646034456618</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>111.7590372859355</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>242.4381050559237</v>
       </c>
       <c r="G5" t="n">
-        <v>326.7650356311622</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>48.66063822548841</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>176.4625859654097</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.94220618903472</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>239.0805259287318</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.51138766626201</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>29.82334271941455</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090891</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066895</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611369</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014937</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682851</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658683</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485895</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775956</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330904</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325346</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282124</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072712</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674104</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307771</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261556</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.262332560511</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911972</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240732</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257154</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028909</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969222</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993425</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777202</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855589</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600313</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932505</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519961</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567077</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965187</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189612</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31285,25 +31285,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
         <v>407.9506271086971</v>
@@ -31312,7 +31312,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837063</v>
@@ -31364,22 +31364,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31391,13 +31391,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31461,10 +31461,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
         <v>76.19324275662508</v>
@@ -31473,10 +31473,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31522,25 +31522,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
         <v>407.9506271086971</v>
@@ -31549,7 +31549,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31601,22 +31601,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31628,13 +31628,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31698,10 +31698,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
         <v>76.19324275662508</v>
@@ -31710,10 +31710,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,34 +32312,34 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>291.8940795642889</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32552,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>592.1874941409594</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>316.0872899694772</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.944966752077</v>
+        <v>74.84835158000254</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241376</v>
+        <v>484.1994295962202</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315064</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410124</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692774</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269027</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938087</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185456</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138492</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597328</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643752</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>460.4681428116997</v>
+        <v>460.4681428117061</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691789</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407399</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>241.217122981271</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689365</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527185</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883111</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550911</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944467</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,25 +34939,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342472</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961988</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>491.78457892785</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35109,10 +35109,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,25 +35176,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>569.7616520935778</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>183.4081296997141</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225505</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35346,10 +35346,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875399</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.9123054782673</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610852</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>527.4636460127482</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36285,10 +36285,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>173.4910455250327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396396</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
